--- a/projectIonAutomation/TestData/Data.xlsx
+++ b/projectIonAutomation/TestData/Data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="435" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CustomerDetails" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="placeOrderDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="accountLoginDetails" sheetId="4" r:id="rId2"/>
+    <sheet name="completedSinglineOrders" sheetId="2" r:id="rId3"/>
+    <sheet name="completedMultilineOrders" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="129">
   <si>
     <t>Email</t>
   </si>
@@ -125,13 +126,316 @@
   </si>
   <si>
     <t>d15t0hh</t>
+  </si>
+  <si>
+    <t>Order Type</t>
+  </si>
+  <si>
+    <t>Singleline</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-05_18-45-4515@eir.ie</t>
+  </si>
+  <si>
+    <t>JJALNBGB</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2019-12-05_18-45-4539</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Order Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Order Stage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F3F76"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 = Order Placed
+2 = Setup Complete
+3 = Provisioning Complete</t>
+    </r>
+  </si>
+  <si>
+    <t>Delivery Address Eircode</t>
+  </si>
+  <si>
+    <t>Billing Address Eircode</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-05_19-13-1337@eir.ie</t>
+  </si>
+  <si>
+    <t>BPIVH21X</t>
+  </si>
+  <si>
+    <t>2019-12-05_19-14-145</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-05_19-30-3045@eir.ie</t>
+  </si>
+  <si>
+    <t>PHITIE8U</t>
+  </si>
+  <si>
+    <t>2019-12-05_19-31-3114</t>
+  </si>
+  <si>
+    <t>Multiline</t>
+  </si>
+  <si>
+    <t>Testpass1</t>
+  </si>
+  <si>
+    <t>CrossSell</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-10_15-34-343@eir.ie</t>
+  </si>
+  <si>
+    <t>1SWY8LMZ</t>
+  </si>
+  <si>
+    <t>2019-12-10_15-34-3429</t>
+  </si>
+  <si>
+    <t>Account with no Subs</t>
+  </si>
+  <si>
+    <t>Singleline Account</t>
+  </si>
+  <si>
+    <t>Multiline Account</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-10_16-11-1133@eir.ie</t>
+  </si>
+  <si>
+    <t>BGRBOBC3</t>
+  </si>
+  <si>
+    <t>2019-12-10_16-11-1157</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-10_16-13-1357@eir.ie</t>
+  </si>
+  <si>
+    <t>41X0OXPZ</t>
+  </si>
+  <si>
+    <t>2019-12-10_16-14-1421</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_12-31-3120@eir.ie</t>
+  </si>
+  <si>
+    <t>4JP6J2D4</t>
+  </si>
+  <si>
+    <t>2019-12-11_12-31-3145</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_12-47-4752@eir.ie</t>
+  </si>
+  <si>
+    <t>QYDHUEBK</t>
+  </si>
+  <si>
+    <t>2019-12-11_12-48-4817</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_13-38-389@eir.ie</t>
+  </si>
+  <si>
+    <t>UHENULVL</t>
+  </si>
+  <si>
+    <t>2019-12-11_13-38-3835</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_13-38-3854@eir.ie</t>
+  </si>
+  <si>
+    <t>MI6YSU8A</t>
+  </si>
+  <si>
+    <t>2019-12-11_13-39-3920</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_14-43-4342@eir.ie</t>
+  </si>
+  <si>
+    <t>JLHMKSD4</t>
+  </si>
+  <si>
+    <t>2019-12-11_14-44-446</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>orderNumber</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>secondName</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>idType</t>
+  </si>
+  <si>
+    <t>idNumber</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>allowIonContact</t>
+  </si>
+  <si>
+    <t>billingAddressEircode</t>
+  </si>
+  <si>
+    <t>isDeliveryAddressSame</t>
+  </si>
+  <si>
+    <t>deliveryAddressEircode</t>
+  </si>
+  <si>
+    <t>2019-12-11_15-03-320</t>
+  </si>
+  <si>
+    <t>2019-12-11_15-03-340</t>
+  </si>
+  <si>
+    <t>2019-12-11_15-07-727</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_15-13-1319@eir.ie</t>
+  </si>
+  <si>
+    <t>AINLWIVW</t>
+  </si>
+  <si>
+    <t>2019-12-11_15-13-1343</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-26-2651</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-27-2726</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-32-3238</t>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-33-3347</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-36-3643</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-37-3749</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-51-5144</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-52-5256</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_16-58-5853@eir.ie</t>
+  </si>
+  <si>
+    <t>CEUQBNU8</t>
+  </si>
+  <si>
+    <t>2019-12-11_16-59-5917</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-11_17-00-023@eir.ie</t>
+  </si>
+  <si>
+    <t>RGPYCMOK</t>
+  </si>
+  <si>
+    <t>2019-12-11_17-00-047</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Beka.Okromchedlidze+2019-10-04_14-51-42@eir.ie</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-16_14-43-4353@eir.ie</t>
+  </si>
+  <si>
+    <t>3CL7OQRQ</t>
+  </si>
+  <si>
+    <t>2019-12-16_14-44-4421</t>
+  </si>
+  <si>
+    <t>B.Ok+2019-12-16_14-44-4436@eir.ie</t>
+  </si>
+  <si>
+    <t>OBHTXBUJ</t>
+  </si>
+  <si>
+    <t>2019-12-16_14-44-4459</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +471,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="73">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +528,333 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="74">
     <border>
       <left/>
       <right/>
@@ -248,14 +892,736 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -276,11 +1642,178 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="45" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="45" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="49" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="49" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="53" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="64" borderId="57" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="66" borderId="61" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="68" borderId="65" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="69" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="72" borderId="73" xfId="0" applyBorder="true" applyFill="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="4" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -582,19 +2115,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="10" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -892,24 +2425,1636 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="47.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" s="59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="N15" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="L16" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="80" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="83" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="83" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="N20" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="O20" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="85" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="102">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s" s="97">
+        <v>126</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s" s="97">
+        <v>127</v>
+      </c>
+      <c r="E23" t="s" s="97">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s" s="97">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="97">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s" s="97">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s" s="97">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s" s="97">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s" s="97">
+        <v>19</v>
+      </c>
+      <c r="L23" t="s" s="97">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s" s="97">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s" s="97">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s" s="97">
+        <v>40</v>
+      </c>
+      <c r="P23" t="s" s="105">
+        <v>121</v>
+      </c>
+      <c r="Q23" t="s" s="97">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="95">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s" s="94">
+        <v>123</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s" s="94">
+        <v>124</v>
+      </c>
+      <c r="E6" t="s" s="94">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="94">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="94">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s" s="94">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s" s="94">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s" s="94">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s" s="94">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s" s="94">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="94">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s" s="94">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s" s="94">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s" s="104">
+        <v>121</v>
+      </c>
+      <c r="Q6" t="s" s="94">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>